--- a/data/trans_camb/P7A_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P7A_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>-7,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,6</t>
+          <t>-8,53</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-3,29</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-5,23</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>5,52</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-18,0; 16,6</t>
+          <t>-16,37; 16,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,81; 14,24</t>
+          <t>-25,21; 4,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-20,25; 13,4</t>
+          <t>-25,98; 2,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,58; 12,04</t>
+          <t>-7,7; 28,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 11,55</t>
+          <t>-14,42; 14,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,31; 9,33</t>
+          <t>-14,77; 15,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 11,21</t>
+          <t>-15,57; 12,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 9,97</t>
+          <t>-12,91; 16,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-11,58; 8,91</t>
+          <t>-10,73; 11,54</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-13,9; 7,04</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-15,61; 4,27</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-5,98; 19,15</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>-1,82%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-9,3%</t>
+          <t>-57,11%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-12,98%</t>
+          <t>-66,9%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>78,43%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-1,35%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-9,64%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>-7,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-3,03%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-6,4%</t>
+          <t>0,22%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-23,05%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-36,62%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>38,67%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-47,19; 88,26</t>
+          <t>-81,16; 521,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-51,8; 77,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-54,9; 72,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-55,77; 131,45</t>
+          <t>-46,24; 781,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-58,08; 136,63</t>
+          <t>-68,57; 188,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-62,28; 114,31</t>
+          <t>-66,88; 190,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-37,85; 73,15</t>
+          <t>-72,86; 168,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-39,85; 62,45</t>
+          <t>-64,34; 219,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-45,65; 58,15</t>
+          <t>-57,57; 146,2</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-72,03; 87,05</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-76,74; 55,33</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-33,04; 218,21</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-2,49</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,23</t>
+          <t>-9,87</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-9,11</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-1,89</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-3,98</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-4,9</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,32; 14,87</t>
+          <t>-17,09; 20,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,46; 11,36</t>
+          <t>-19,22; 17,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,31; 6,26</t>
+          <t>-25,18; 8,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 8,8</t>
+          <t>-25,84; 10,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 7,45</t>
+          <t>-11,82; 10,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 10,3</t>
+          <t>-12,94; 9,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 8,22</t>
+          <t>-9,52; 13,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 7,09</t>
+          <t>-13,52; 11,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 5,0</t>
+          <t>-10,18; 10,91</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-11,4; 8,62</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-13,72; 5,81</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-14,6; 5,56</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-5,41%</t>
+          <t>-11,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-31,92%</t>
+          <t>-46,57%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,0%</t>
+          <t>-42,99%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-12,87%</t>
+          <t>-1,37%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>-16,43%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>20,59%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-7,96%</t>
+          <t>-9,28%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-14,5%</t>
+          <t>0,19%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-11,79%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-24,9%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-30,6%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-55,84; 136,23</t>
+          <t>-58,68; 160,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-62,66; 111,14</t>
+          <t>-67,44; 126,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-76,6; 64,28</t>
+          <t>-84,24; 52,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-54,32; 139,5</t>
+          <t>-84,67; 70,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-64,54; 113,77</t>
+          <t>-76,66; 223,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-52,76; 155,89</t>
+          <t>-82,32; 209,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-42,17; 86,55</t>
+          <t>-70,45; 311,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-48,41; 71,69</t>
+          <t>-79,15; 330,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-54,76; 52,77</t>
+          <t>-46,95; 103,44</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-55,42; 88,74</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-65,12; 52,86</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-69,26; 51,74</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-3,44</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>-1,37</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-0,93</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,92</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,38</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 9,26</t>
+          <t>-13,96; 11,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 10,45</t>
+          <t>-12,18; 14,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 10,86</t>
+          <t>-12,8; 13,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 6,32</t>
+          <t>-14,67; 11,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 6,06</t>
+          <t>-7,67; 5,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 6,97</t>
+          <t>-8,74; 5,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 4,93</t>
+          <t>-8,52; 5,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 5,03</t>
+          <t>-6,04; 15,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 5,43</t>
+          <t>-8,13; 5,3</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-7,36; 6,04</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-7,14; 6,18</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-7,27; 8,36</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-10,48%</t>
+          <t>-11,48%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,81%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-3,29%</t>
+          <t>-3,56%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-2,2%</t>
+          <t>-21,04%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-8,17%</t>
+          <t>-11,79%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-2,56%</t>
+          <t>-22,59%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-6,42%</t>
+          <t>-18,73%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-3,68%</t>
+          <t>18,54%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-1,99%</t>
+          <t>-12,58%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-8,59%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-8,51%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-3,5%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-55,87; 109,41</t>
+          <t>-62,03; 116,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-49,46; 119,44</t>
+          <t>-55,15; 147,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-53,16; 113,61</t>
+          <t>-59,53; 132,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-54,22; 101,2</t>
+          <t>-71,09; 131,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-56,28; 108,33</t>
+          <t>-71,8; 157,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-53,12; 119,61</t>
+          <t>-79,92; 142,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-43,32; 56,14</t>
+          <t>-78,63; 154,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-40,92; 56,51</t>
+          <t>-70,53; 343,9</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-39,55; 59,97</t>
+          <t>-56,67; 75,56</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-50,67; 80,99</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-51,54; 86,83</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-55,31; 121,96</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>6,22</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>3,38</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 6,51</t>
+          <t>-11,25; 8,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 8,42</t>
+          <t>-8,54; 12,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 7,98</t>
+          <t>-8,25; 12,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 10,47</t>
+          <t>-10,03; 10,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 8,68</t>
+          <t>-10,34; 11,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 8,01</t>
+          <t>-10,54; 9,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 5,34</t>
+          <t>-10,51; 9,93</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 6,15</t>
+          <t>-4,4; 17,63</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 5,87</t>
+          <t>-6,51; 7,4</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-6,56; 7,85</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-6,61; 8,07</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-4,0; 10,87</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-8,29%</t>
+          <t>-9,2%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-2,07%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-5,45%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>-6,02%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>-5,76%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>38,47%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-1,11%</t>
+          <t>-0,6%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1,09%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2,6%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>24,01%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1688,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-53,25; 66,94</t>
+          <t>-69,85; 153,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-48,6; 79,12</t>
+          <t>-56,99; 185,78</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-51,08; 74,51</t>
+          <t>-54,84; 204,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-33,17; 79,17</t>
+          <t>-63,96; 158,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-34,16; 64,51</t>
+          <t>-47,13; 108,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-34,41; 61,45</t>
+          <t>-50,45; 92,17</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-34,32; 38,18</t>
+          <t>-51,15; 92,49</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-32,69; 45,85</t>
+          <t>-23,93; 165,67</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-34,38; 43,22</t>
+          <t>-37,96; 72,8</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-38,82; 79,92</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-38,29; 82,29</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-22,87; 97,86</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1760,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>46,81</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>3,75</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>21,26</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,45</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>1,01</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>35,75</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1828,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-15,94; 13,5</t>
+          <t>-20,35; 16,48</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,9; 14,35</t>
+          <t>-19,15; 17,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-12,55; 15,38</t>
+          <t>-18,21; 17,64</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 13,81</t>
+          <t>31,94; 58,98</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 16,4</t>
+          <t>-15,26; 20,44</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-13,33; 13,3</t>
+          <t>-14,71; 21,54</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 9,3</t>
+          <t>-16,76; 19,72</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 10,06</t>
+          <t>7,55; 38,26</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 9,47</t>
+          <t>-14,16; 13,27</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-13,32; 13,63</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-13,45; 13,6</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>25,1; 46,01</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1896,62 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-1,41%</t>
+          <t>-2,35%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-0,54%</t>
+          <t>-1,06%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>100,18%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-0,21%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-0,08%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>30,88%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,8%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1,8%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1,41%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>63,66%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1964,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-24,29; 26,11</t>
+          <t>-36,42; 43,22</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-21,5; 28,77</t>
+          <t>-34,22; 43,78</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-19,88; 30,51</t>
+          <t>-33,1; 45,99</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-17,02; 22,03</t>
+          <t>54,31; 164,16</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-12,24; 26,96</t>
+          <t>-20,15; 35,92</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-17,99; 21,38</t>
+          <t>-19,46; 36,08</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-12,68; 15,66</t>
+          <t>-22,57; 33,4</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 17,26</t>
+          <t>10,07; 69,39</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-13,11; 16,01</t>
+          <t>-22,36; 26,27</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-21,42; 27,22</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-21,28; 26,49</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>38,99; 99,24</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2036,62 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>0,73</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2104,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 4,92</t>
+          <t>-7,21; 4,75</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 4,94</t>
+          <t>-4,58; 7,02</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 4,44</t>
+          <t>-7,83; 4,76</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 7,57</t>
+          <t>-9,52; 4,66</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 9,1</t>
+          <t>-8,77; 8,95</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 9,12</t>
+          <t>-8,79; 8,91</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 4,29</t>
+          <t>-7,31; 9,31</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 5,37</t>
+          <t>-5,2; 10,71</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 5,18</t>
+          <t>-5,84; 5,72</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-5,49; 5,86</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-5,34; 5,91</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-3,89; 6,35</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2172,62 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>-0,05%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>0,01%</t>
+          <t>0,09%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-0,33%</t>
+          <t>-0,28%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-0,23%</t>
+          <t>-0,21%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-0,14%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,03%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,13%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,28%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,76%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2240,62 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 5,17</t>
+          <t>-7,29; 5,0</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 5,25</t>
+          <t>-4,61; 7,56</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 4,7</t>
+          <t>-7,91; 4,99</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 8,76</t>
+          <t>-9,6; 4,89</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 10,38</t>
+          <t>-8,85; 9,89</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 10,4</t>
+          <t>-8,85; 9,85</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 4,68</t>
+          <t>-7,45; 10,38</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 5,89</t>
+          <t>-5,27; 12,28</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 5,63</t>
+          <t>-5,91; 6,19</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-5,59; 6,31</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-5,38; 6,36</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-3,96; 6,87</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2312,62 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-2,78</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-4,0</t>
+          <t>-4,28</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>6,06</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>10,53</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-1,15</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-1,75</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>8,4</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2380,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 5,05</t>
+          <t>-9,37; 6,78</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 4,14</t>
+          <t>-10,47; 5,38</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-9,67; 3,0</t>
+          <t>-12,67; 3,06</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 4,64</t>
+          <t>-3,13; 13,77</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 5,75</t>
+          <t>-5,97; 6,91</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 9,01</t>
+          <t>-6,64; 6,15</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 2,7</t>
+          <t>-5,47; 7,14</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 2,59</t>
+          <t>2,84; 17,67</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 3,28</t>
+          <t>-5,1; 4,73</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-6,11; 3,37</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-6,63; 3,16</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>2,81; 14,1</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2448,62 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-4,29%</t>
+          <t>-1,96%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-7,75%</t>
+          <t>-6,24%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-11,16%</t>
+          <t>-13,76%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-2,31%</t>
+          <t>19,47%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-1,19%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>-1,65%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-3,25%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-4,37%</t>
+          <t>36,22%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-4,08%</t>
+          <t>0,07%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-3,84%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-5,82%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>27,98%</t>
         </is>
       </c>
     </row>
@@ -2087,61 +2516,83 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-19,38; 15,7</t>
+          <t>-27,18; 24,73</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-21,05; 12,74</t>
+          <t>-29,93; 19,11</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-25,11; 9,34</t>
+          <t>-36,5; 11,18</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-15,92; 14,98</t>
+          <t>-9,0; 48,67</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-15,11; 18,63</t>
+          <t>-17,93; 27,14</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 28,53</t>
+          <t>-20,88; 22,5</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-14,29; 8,25</t>
+          <t>-17,23; 27,99</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-14,98; 8,03</t>
+          <t>9,02; 67,22</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-15,56; 10,1</t>
+          <t>-15,96; 17,28</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-18,91; 12,76</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-20,21; 11,24</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>8,44; 50,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
